--- a/public/files/bill/bill_93.xlsx
+++ b/public/files/bill/bill_93.xlsx
@@ -113,6 +113,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="0"/>
@@ -308,22 +309,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -332,7 +333,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -445,44 +446,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -510,14 +511,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -545,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
